--- a/tables.xlsx
+++ b/tables.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\HabitatRecovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{388A9C33-B354-4735-96EA-5487E7FEA33C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="6_{388A9C33-B354-4735-96EA-5487E7FEA33C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{536A23A1-7EA6-421A-BAB6-6958BEA1644B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="freq_table" sheetId="1" r:id="rId1"/>
     <sheet name="indicsp" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>Species</t>
   </si>
@@ -143,22 +144,88 @@
     <t>Agrostis stolonifera*</t>
   </si>
   <si>
-    <t>Refrence</t>
-  </si>
-  <si>
-    <t>Above Ground Vegetation</t>
-  </si>
-  <si>
     <t>Below Ground Seed Bank</t>
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>Above Ground</t>
+  </si>
+  <si>
+    <t>Below Ground</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estuary </t>
+  </si>
+  <si>
+    <t>Time Since Disturbance</t>
+  </si>
+  <si>
+    <t>Disturbance condition</t>
+  </si>
+  <si>
+    <t>Revegetation status</t>
+  </si>
+  <si>
+    <t>Little Qualicum, Nanaimo</t>
+  </si>
+  <si>
+    <t>0 years (recent grubbing disturbance)</t>
+  </si>
+  <si>
+    <t>No transplants; ruderal vegetation exists</t>
+  </si>
+  <si>
+    <t>Nanaimo</t>
+  </si>
+  <si>
+    <t>1-year post-grazing/grubbing disturbance</t>
+  </si>
+  <si>
+    <t>Partially grubbed</t>
+  </si>
+  <si>
+    <t>No transplants; vegetation recovery from remnant and adjacent vegetation</t>
+  </si>
+  <si>
+    <t>Little Qualicum</t>
+  </si>
+  <si>
+    <t>10 years post-grazing/grubbing disturbance</t>
+  </si>
+  <si>
+    <t>No known grazing disturbance</t>
+  </si>
+  <si>
+    <t>No manipulations</t>
+  </si>
+  <si>
+    <t>Number of sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected by exclosure? </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Number of surface seed bank samples per plot</t>
+  </si>
+  <si>
+    <t>Number of sampling plots per site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +550,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -628,6 +701,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +757,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,19 +788,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,20 +1217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1764,23 +1892,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3114959-FF10-4595-A5F8-455218059366}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
     <col min="2" max="2" width="11.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="5"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12" style="21" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1931,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
+      <c r="A2" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -1813,39 +1943,43 @@
       <c r="D2" s="10">
         <v>3.3E-3</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>34</v>
+      <c r="E2" s="18"/>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I2" s="10">
-        <v>1E-4</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="10">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="H3" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I3" s="10">
-        <v>4.58E-2</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
@@ -1855,21 +1989,20 @@
       <c r="D4" s="10">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I4" s="10">
-        <v>7.1999999999999998E-3</v>
+        <v>4.58E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1877,9 +2010,10 @@
       <c r="D5" s="10">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="16"/>
       <c r="G5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>5</v>
@@ -1889,16 +2023,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="23">
         <v>2.4E-2</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="15"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1907,16 +2042,17 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="10">
         <v>3.95E-2</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1925,8 +2061,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1935,37 +2071,39 @@
       <c r="D8" s="10">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="23">
         <v>1.6E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10">
         <v>2.64E-2</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="23">
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
       <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
@@ -1975,8 +2113,9 @@
       <c r="D10" s="10">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="22" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
@@ -1986,17 +2125,285 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="10">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="15"/>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="F2:F10"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="F2:F10"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF58E50-B3BE-49C4-B06D-2B4A5C7991F7}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="24" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="31">
+        <v>8</v>
+      </c>
+      <c r="G2" s="31">
+        <v>2</v>
+      </c>
+      <c r="H2" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="27">
+        <v>4</v>
+      </c>
+      <c r="G3" s="27">
+        <v>2</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2</v>
+      </c>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="29">
+        <v>4</v>
+      </c>
+      <c r="G4" s="29">
+        <v>2</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="29">
+        <v>8</v>
+      </c>
+      <c r="G5" s="29">
+        <v>2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2232,18 +2639,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2266,26 +2673,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C387177-63B7-4B47-93D3-024ED4AF6CD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60909E04-0408-485E-AD28-829EC6C4040D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C387177-63B7-4B47-93D3-024ED4AF6CD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\HabitatRecovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="6_{388A9C33-B354-4735-96EA-5487E7FEA33C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{536A23A1-7EA6-421A-BAB6-6958BEA1644B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{DAFAE223-371F-4506-A5AD-38DDEEBE1AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="freq_table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Species</t>
   </si>
@@ -150,12 +150,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>Above Ground</t>
-  </si>
-  <si>
-    <t>Below Ground</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estuary </t>
   </si>
   <si>
@@ -217,6 +211,21 @@
   </si>
   <si>
     <t>Number of sampling plots per site</t>
+  </si>
+  <si>
+    <t>Above Ground Vegetation</t>
+  </si>
+  <si>
+    <t>10-year old exclosures</t>
+  </si>
+  <si>
+    <t>1-year old exclosures + Grubbed</t>
+  </si>
+  <si>
+    <t>10-year old exclosures + Undisturbed</t>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +378,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -557,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -712,6 +728,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -776,43 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -846,6 +869,106 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1217,20 +1340,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -1892,361 +2015,338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3114959-FF10-4595-A5F8-455218059366}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="5"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12" style="21" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="5"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="F2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="C3" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="10">
+      <c r="G3" s="56">
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C4" s="55">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="14" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="55">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="54">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="58">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="58">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="58">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="55">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="58">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="55">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="55">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10">
+      <c r="C18" s="8">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="25"/>
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="26"/>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="10">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="10">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="23">
-        <v>2.4E-2</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="10">
-        <v>3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3.95E-2</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4.4900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="10">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2.64E-2</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="23">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="10">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="C25" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="10">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10">
-        <v>3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="10">
-        <v>4.4900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="23">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="23">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="F2:F10"/>
+  <mergeCells count="17">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2257,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF58E50-B3BE-49C4-B06D-2B4A5C7991F7}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2272,134 +2372,134 @@
     <col min="8" max="8" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="24" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="D1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="E1" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="B2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="C2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="20">
+        <v>8</v>
+      </c>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F3" s="16">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2</v>
+      </c>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="F5" s="18">
         <v>8</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G5" s="18">
         <v>2</v>
       </c>
-      <c r="H2" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="27">
-        <v>4</v>
-      </c>
-      <c r="G3" s="27">
-        <v>2</v>
-      </c>
-      <c r="H3" s="27">
-        <v>2</v>
-      </c>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="29">
-        <v>4</v>
-      </c>
-      <c r="G4" s="29">
-        <v>2</v>
-      </c>
-      <c r="H4" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="29">
-        <v>8</v>
-      </c>
-      <c r="G5" s="29">
-        <v>2</v>
-      </c>
-      <c r="H5" s="29">
+      <c r="H5" s="18">
         <v>2</v>
       </c>
     </row>
@@ -2639,18 +2739,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2673,26 +2773,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C387177-63B7-4B47-93D3-024ED4AF6CD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60909E04-0408-485E-AD28-829EC6C4040D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60909E04-0408-485E-AD28-829EC6C4040D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C387177-63B7-4B47-93D3-024ED4AF6CD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/tables.xlsx
+++ b/tables.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{DAFAE223-371F-4506-A5AD-38DDEEBE1AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="14_{9E21662B-F13F-4456-AF54-EA2DF7814712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D1E38D-8CA3-48F2-A15C-CD56A25D4D22}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="freq_table" sheetId="1" r:id="rId1"/>
-    <sheet name="indicsp" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Table1" sheetId="4" r:id="rId1"/>
+    <sheet name="indicsp_maxorder1" sheetId="6" r:id="rId2"/>
+    <sheet name="indicsp_maxorder2" sheetId="2" r:id="rId3"/>
+    <sheet name="sp_div" sheetId="5" r:id="rId4"/>
+    <sheet name="freq_table" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>Species</t>
   </si>
@@ -177,9 +179,6 @@
     <t>1-year post-grazing/grubbing disturbance</t>
   </si>
   <si>
-    <t>Partially grubbed</t>
-  </si>
-  <si>
     <t>No transplants; vegetation recovery from remnant and adjacent vegetation</t>
   </si>
   <si>
@@ -195,9 +194,6 @@
     <t>No manipulations</t>
   </si>
   <si>
-    <t>Number of sites</t>
-  </si>
-  <si>
     <t xml:space="preserve">Protected by exclosure? </t>
   </si>
   <si>
@@ -207,25 +203,46 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Number of surface seed bank samples per plot</t>
-  </si>
-  <si>
-    <t>Number of sampling plots per site</t>
-  </si>
-  <si>
     <t>Above Ground Vegetation</t>
   </si>
   <si>
     <t>10-year old exclosures</t>
   </si>
   <si>
-    <t>1-year old exclosures + Grubbed</t>
-  </si>
-  <si>
     <t>10-year old exclosures + Undisturbed</t>
   </si>
   <si>
     <t>&lt; 0.01</t>
+  </si>
+  <si>
+    <t>Grubbed + 1-year old exclosures</t>
+  </si>
+  <si>
+    <t>Surface Seed Bank</t>
+  </si>
+  <si>
+    <t>Above-ground Vegetation</t>
+  </si>
+  <si>
+    <t>1-yr old exclosures</t>
+  </si>
+  <si>
+    <t>10-yr old exclosures</t>
+  </si>
+  <si>
+    <t>Actively grubbed</t>
+  </si>
+  <si>
+    <t>Recovering</t>
+  </si>
+  <si>
+    <t>Total plots</t>
+  </si>
+  <si>
+    <t>Total surface seed bank samples</t>
+  </si>
+  <si>
+    <t>1-year old exclosures</t>
   </si>
 </sst>
 </file>
@@ -573,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -768,6 +785,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -813,7 +839,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -832,9 +858,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,132 +865,191 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1324,6 +1406,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF58E50-B3BE-49C4-B06D-2B4A5C7991F7}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="15">
+        <v>16</v>
+      </c>
+      <c r="G2" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="9">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="13">
+        <v>8</v>
+      </c>
+      <c r="G4" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="13">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25825E48-F577-4309-B8BF-4EF1624C7E48}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="64">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="64">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="32">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="32">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="43"/>
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="31">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="31">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
+      <c r="B7" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="72">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43"/>
+      <c r="B10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="76"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="80"/>
+      <c r="E11" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="62">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="32">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="77"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="53"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="53"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="53"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="53"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="53"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="53"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="53"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="59"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3114959-FF10-4595-A5F8-455218059366}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="5"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="49">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
+      <c r="B4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="32">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43"/>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="31">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="31">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="30">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="32">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="32">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="32">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="43"/>
+      <c r="B12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="31">
+        <v>3.95E-2</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="31">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="6">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4.4900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89153534-C6CA-46B3-A87A-6DC93E4BDDE6}">
+  <dimension ref="A3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
@@ -1331,31 +2285,31 @@
       <selection activeCell="H1" sqref="H1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.6328125" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:12" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +2343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +2375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +2407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1485,7 +2439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1517,7 +2471,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1549,7 +2503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1581,7 +2535,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1613,7 +2567,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1645,7 +2599,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +2631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1709,7 +2663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1741,7 +2695,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -1773,7 +2727,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +2759,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +2791,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1869,7 +2823,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +2855,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H20" s="4" t="s">
         <v>28</v>
       </c>
@@ -1918,7 +2872,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1952,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H23" s="4" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1986,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H25" s="4" t="s">
         <v>22</v>
       </c>
@@ -2008,502 +2962,6 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3114959-FF10-4595-A5F8-455218059366}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.90625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="5"/>
-    <col min="4" max="4" width="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="56">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="55">
-        <v>3.9699999999999999E-2</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="55">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="54">
-        <v>1.9199999999999998E-2</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="58">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="58">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="58">
-        <v>3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="55">
-        <v>3.95E-2</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="55">
-        <v>4.4900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="58">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="55">
-        <v>2.64E-2</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="55">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1.5599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3.4200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="25"/>
-      <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="8">
-        <v>4.4900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="12">
-        <v>1.6E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="12">
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="8">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF58E50-B3BE-49C4-B06D-2B4A5C7991F7}">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.08984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="9.90625" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="13" customFormat="1" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="20">
-        <v>8</v>
-      </c>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="16">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16">
-        <v>2</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2</v>
-      </c>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="18">
-        <v>4</v>
-      </c>
-      <c r="G4" s="18">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="18">
-        <v>8</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2783,16 +3241,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C387177-63B7-4B47-93D3-024ED4AF6CD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>